--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_181.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_181.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1790540540540541</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D', 'D/2']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'D']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(57.251357, 74.388469)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(51.584671, 57.2039)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0875046347793845</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1860902255639098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
+          <t>[['A', 'G:maj/9', 'A'], ['A', 'A', 'G:maj/9']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(52.01, 59.49)]</t>
+          <t>[['G', 'F', 'G'], ['G', 'G', 'F/9']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.077029, 40.734172)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:07.796666', '0:00:30.018163'), ('0:00:00.382952', '0:00:18.907414')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:52.415782', '0:01:59.834557'), ('0:00:53.030748', '0:01:00.461133')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(132.42, 162.76)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(102.0, 126.44)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:36.820000', '0:00:47.630000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04166666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb:sus4', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:sus4', 'F#', 'B']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(67.17009, 70.699523)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.406553, 6.02034)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(80.16, 86.12), (109.52, 114.2)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(96.84, 103.06), (41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:46.060000', '0:00:55.660000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.953139, 19.672232)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:03.460000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05031982942430704</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'A:min7']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'C:min7']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.981768, 5.894331)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.82, 9.13)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06719457013574662</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb/2', 'F', 'G:min7'], ['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(82.007, 87.045), (36.711, 39.787)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(64.32, 66.92), (43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09973474801061008</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj', 'D:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(54.072, 60.759)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.38, 14.88)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.0, 16.38)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08738738738738738</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(242.22, 246.98)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(200.58, 201.82)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2135416666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.5, 10.4)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'A:min', 'D:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(30.531803, 36.267131)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.865, 27.322)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(74.2, 81.18)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.21, 15.93)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.56, 6.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(83.2, 91.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
